--- a/medicine/Handicap/Théodore_Simon/Théodore_Simon.xlsx
+++ b/medicine/Handicap/Théodore_Simon/Théodore_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Simon</t>
+          <t>Théodore_Simon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore Simon, né le 10 juillet 1873 à Dijon et mort le 4 septembre 1961 à Paris[1], est un psychiatre français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Simon, né le 10 juillet 1873 à Dijon et mort le 4 septembre 1961 à Paris, est un psychiatre français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Simon</t>
+          <t>Théodore_Simon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fit une brillante carrière de médecin d'asile, notamment à Dury-les-Amiens, à Saint-Yon près de Rouen, mais aussi à l'admission de l'hôpital Sainte-Anne[2].  Il fut également, brièvement, entre 1936 et 1937, directeur médecin en chef de l'Hôpital Henri Rousselle (Paris).
-Il est surtout connu pour sa contribution à la création, avec Alfred Binet, de l'Échelle métrique d'intelligence, publiée pour la première fois en 1905. Mais il fut également un psychiatre reconnu, président de la Société médico-psychologique en 1935, créateur de la revue Laboratoire et psychiatrie en 1937, et président du congrès international des médecins aliénistes et de neurologistes de France qui se déroula l'année suivante à Alger[3].  
-Il a été président de la Société libre pour l'étude psychologique de l'enfant (devenue en 1917 la Société Alfred Binet et aujourd'hui Société Binet-Simon) de 1912 à 1961[4]. 
-Il fut en outre le fondateur de la première école supérieure d'infirmiers et d''infirmières psychiatriques, ouverte à Maison-Blanche (Neuilly-sur-Marne), en 1946. L'institut de formation qui en est issu porte aujourd'hui son nom[5]. Il a également créé et dirigé la revue L'infirmier psychiatrique de 1953 à 1958.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fit une brillante carrière de médecin d'asile, notamment à Dury-les-Amiens, à Saint-Yon près de Rouen, mais aussi à l'admission de l'hôpital Sainte-Anne.  Il fut également, brièvement, entre 1936 et 1937, directeur médecin en chef de l'Hôpital Henri Rousselle (Paris).
+Il est surtout connu pour sa contribution à la création, avec Alfred Binet, de l'Échelle métrique d'intelligence, publiée pour la première fois en 1905. Mais il fut également un psychiatre reconnu, président de la Société médico-psychologique en 1935, créateur de la revue Laboratoire et psychiatrie en 1937, et président du congrès international des médecins aliénistes et de neurologistes de France qui se déroula l'année suivante à Alger.  
+Il a été président de la Société libre pour l'étude psychologique de l'enfant (devenue en 1917 la Société Alfred Binet et aujourd'hui Société Binet-Simon) de 1912 à 1961. 
+Il fut en outre le fondateur de la première école supérieure d'infirmiers et d''infirmières psychiatriques, ouverte à Maison-Blanche (Neuilly-sur-Marne), en 1946. L'institut de formation qui en est issu porte aujourd'hui son nom. Il a également créé et dirigé la revue L'infirmier psychiatrique de 1953 à 1958.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Simon</t>
+          <t>Théodore_Simon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 3 octobre 1947).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Simon</t>
+          <t>Théodore_Simon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alfred Binet et Théodore Simon, Les enfants anormaux : guide pour l'admission des enfants anormaux dans les classes de perfectionnement, Paris, A. Colin, 1907.
 Théodore Simon, L'aliéné, l'asile, l'infirmière, Paris : E. Bourgault , 1911.
